--- a/data/trans_orig/P34B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A65A987-3F1A-48B0-94E1-DB9589447CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F0DCB4-F5C5-43B4-BCB4-C624033E8C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67A1510C-DEFB-4320-9104-A906A93D31AF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75176ECB-88CF-448E-ADE5-AA6C39A457BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1145">
   <si>
     <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -1444,2059 +1444,2035 @@
     <t>22,87%</t>
   </si>
   <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2023 (Tasa respuesta: 99,55%)</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2023 (Tasa respuesta: 99,55%)</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>28,55%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>30,13%</t>
   </si>
   <si>
-    <t>28,19%</t>
+    <t>28,48%</t>
   </si>
 </sst>
 </file>
@@ -3908,7 +3884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30066A7E-830F-4F1B-8992-2394274DE7BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E1954-93E4-4099-9C94-6BF566181DE5}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -7269,7 +7245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B127817F-745A-4A93-9E6A-C016424E087A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B2C5DD-E4E6-4B90-A56E-C8EC182C9FB8}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7447,10 +7423,10 @@
         <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -7459,13 +7435,13 @@
         <v>12713</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -7474,13 +7450,13 @@
         <v>29381</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>55</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7471,13 @@
         <v>49601</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H6" s="7">
         <v>42</v>
@@ -7510,13 +7486,13 @@
         <v>40864</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M6" s="7">
         <v>88</v>
@@ -7525,13 +7501,13 @@
         <v>90464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,10 +7525,10 @@
         <v>424</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>494</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -7561,13 +7537,13 @@
         <v>22464</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -7576,13 +7552,13 @@
         <v>38041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,10 +7576,10 @@
         <v>449</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>498</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -7615,10 +7591,10 @@
         <v>198</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -7630,10 +7606,10 @@
         <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,10 +7627,10 @@
         <v>199</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>502</v>
+        <v>105</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>503</v>
+        <v>395</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -7666,7 +7642,7 @@
         <v>390</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>504</v>
+        <v>211</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>505</v>
@@ -7681,10 +7657,10 @@
         <v>506</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>507</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,13 +7675,13 @@
         <v>10291</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>388</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -7714,13 +7690,13 @@
         <v>15032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -7729,13 +7705,13 @@
         <v>25323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>513</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7750,13 +7726,13 @@
         <v>186211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H11" s="7">
         <v>144</v>
@@ -7765,13 +7741,13 @@
         <v>142317</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M11" s="7">
         <v>320</v>
@@ -7780,13 +7756,13 @@
         <v>328528</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,13 +7830,13 @@
         <v>165335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -7869,13 +7845,13 @@
         <v>159890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>319</v>
@@ -7884,13 +7860,13 @@
         <v>325225</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7908,10 +7884,10 @@
         <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>533</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -7923,10 +7899,10 @@
         <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -7938,10 +7914,10 @@
         <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>436</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7956,13 +7932,13 @@
         <v>65395</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H15" s="7">
         <v>61</v>
@@ -7971,13 +7947,13 @@
         <v>59839</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="M15" s="7">
         <v>124</v>
@@ -7986,13 +7962,13 @@
         <v>125233</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,10 +7986,10 @@
         <v>544</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -8022,13 +7998,13 @@
         <v>32379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -8037,13 +8013,13 @@
         <v>59521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,13 +8034,13 @@
         <v>42330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>551</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -8076,10 +8052,10 @@
         <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -8088,13 +8064,13 @@
         <v>95840</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,13 +8085,13 @@
         <v>53351</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>387</v>
+        <v>304</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>554</v>
+        <v>428</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -8124,13 +8100,13 @@
         <v>47710</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M18" s="7">
         <v>101</v>
@@ -8139,13 +8115,13 @@
         <v>101061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>559</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8136,13 @@
         <v>17549</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -8175,7 +8151,7 @@
         <v>22827</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>563</v>
@@ -8193,7 +8169,7 @@
         <v>565</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>450</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>566</v>
@@ -8321,7 +8297,7 @@
         <v>577</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>523</v>
+        <v>578</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -8330,13 +8306,13 @@
         <v>175292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -8369,7 +8345,7 @@
         <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>584</v>
@@ -8387,7 +8363,7 @@
         <v>585</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>586</v>
+        <v>185</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -8399,7 +8375,7 @@
         <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>587</v>
@@ -8453,7 +8429,7 @@
         <v>595</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>305</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,10 +8447,10 @@
         <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -8489,7 +8465,7 @@
         <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>598</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -8501,10 +8477,10 @@
         <v>424</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,10 +8498,10 @@
         <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -8537,10 +8513,10 @@
         <v>195</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -8552,10 +8528,10 @@
         <v>446</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8546,13 @@
         <v>47025</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>503</v>
+        <v>604</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>606</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H27" s="7">
         <v>43</v>
@@ -8588,10 +8564,10 @@
         <v>328</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>609</v>
+        <v>439</v>
       </c>
       <c r="M27" s="7">
         <v>88</v>
@@ -8603,10 +8579,10 @@
         <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>480</v>
+        <v>607</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8624,10 +8600,10 @@
         <v>71</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -8639,10 +8615,10 @@
         <v>434</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>340</v>
+        <v>611</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -8651,13 +8627,13 @@
         <v>42901</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>586</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>615</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8648,13 @@
         <v>281701</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="H29" s="7">
         <v>234</v>
@@ -8687,13 +8663,13 @@
         <v>233622</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="M29" s="7">
         <v>503</v>
@@ -8702,13 +8678,13 @@
         <v>515323</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,13 +8752,13 @@
         <v>175169</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H31" s="7">
         <v>159</v>
@@ -8794,10 +8770,10 @@
         <v>95</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M31" s="7">
         <v>315</v>
@@ -8806,13 +8782,13 @@
         <v>342059</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,13 +8803,13 @@
         <v>23243</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>633</v>
+        <v>23</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>383</v>
+        <v>630</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -8845,10 +8821,10 @@
         <v>105</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>587</v>
+        <v>632</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -8857,13 +8833,13 @@
         <v>41336</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>636</v>
+        <v>144</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8854,13 @@
         <v>82323</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>260</v>
+        <v>636</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H33" s="7">
         <v>83</v>
@@ -8893,13 +8869,13 @@
         <v>89855</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>640</v>
+        <v>537</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="M33" s="7">
         <v>158</v>
@@ -8908,13 +8884,13 @@
         <v>172178</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8905,13 @@
         <v>22784</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>647</v>
+        <v>271</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="H34" s="7">
         <v>39</v>
@@ -8944,13 +8920,13 @@
         <v>41241</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>544</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>649</v>
+        <v>439</v>
       </c>
       <c r="M34" s="7">
         <v>61</v>
@@ -8959,13 +8935,13 @@
         <v>64025</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8956,13 @@
         <v>43057</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>653</v>
+        <v>599</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>654</v>
+        <v>492</v>
       </c>
       <c r="H35" s="7">
         <v>56</v>
@@ -8995,13 +8971,13 @@
         <v>62416</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M35" s="7">
         <v>97</v>
@@ -9013,10 +8989,10 @@
         <v>38</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>658</v>
+        <v>387</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9031,13 +9007,13 @@
         <v>46104</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -9046,13 +9022,13 @@
         <v>45987</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>53</v>
+        <v>646</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>206</v>
+        <v>658</v>
       </c>
       <c r="M36" s="7">
         <v>81</v>
@@ -9061,13 +9037,13 @@
         <v>92091</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9082,13 +9058,13 @@
         <v>20689</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>399</v>
+        <v>663</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -9097,13 +9073,13 @@
         <v>19505</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="M37" s="7">
         <v>38</v>
@@ -9115,10 +9091,10 @@
         <v>236</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>670</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9136,10 +9112,10 @@
         <v>152</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>525</v>
+        <v>667</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H38" s="7">
         <v>188</v>
@@ -9148,13 +9124,13 @@
         <v>205089</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="M38" s="7">
         <v>399</v>
@@ -9163,13 +9139,13 @@
         <v>437769</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9211,7 +9187,7 @@
         <v>1184</v>
       </c>
       <c r="N39" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>88</v>
@@ -9237,13 +9213,13 @@
         <v>149753</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H40" s="7">
         <v>91</v>
@@ -9252,13 +9228,13 @@
         <v>102841</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>245</v>
+        <v>679</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="M40" s="7">
         <v>225</v>
@@ -9267,13 +9243,13 @@
         <v>252594</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>351</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,13 +9264,13 @@
         <v>21247</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="H41" s="7">
         <v>19</v>
@@ -9303,13 +9279,13 @@
         <v>22419</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>689</v>
-      </c>
       <c r="L41" s="7" t="s">
-        <v>690</v>
+        <v>58</v>
       </c>
       <c r="M41" s="7">
         <v>37</v>
@@ -9318,13 +9294,13 @@
         <v>43666</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>667</v>
+        <v>380</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,13 +9315,13 @@
         <v>72551</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>695</v>
       </c>
       <c r="H42" s="7">
         <v>56</v>
@@ -9354,13 +9330,13 @@
         <v>62864</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="M42" s="7">
         <v>121</v>
@@ -9369,13 +9345,13 @@
         <v>135415</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9390,13 +9366,13 @@
         <v>20091</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H43" s="7">
         <v>20</v>
@@ -9408,10 +9384,10 @@
         <v>336</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>105</v>
+        <v>702</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="M43" s="7">
         <v>38</v>
@@ -9420,13 +9396,13 @@
         <v>43187</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>704</v>
+        <v>101</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>564</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9444,10 +9420,10 @@
         <v>322</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>705</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H44" s="7">
         <v>39</v>
@@ -9456,13 +9432,13 @@
         <v>45155</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>706</v>
+        <v>603</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>707</v>
+        <v>447</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>708</v>
+        <v>91</v>
       </c>
       <c r="M44" s="7">
         <v>70</v>
@@ -9471,13 +9447,13 @@
         <v>80431</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>589</v>
+        <v>706</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>181</v>
+        <v>708</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9492,13 +9468,13 @@
         <v>33407</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H45" s="7">
         <v>37</v>
@@ -9507,13 +9483,13 @@
         <v>42577</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>714</v>
       </c>
       <c r="M45" s="7">
         <v>66</v>
@@ -9522,13 +9498,13 @@
         <v>75984</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>341</v>
+        <v>252</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9546,7 +9522,7 @@
         <v>363</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>376</v>
@@ -9558,13 +9534,13 @@
         <v>20217</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>719</v>
+        <v>340</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>658</v>
+        <v>328</v>
       </c>
       <c r="M46" s="7">
         <v>25</v>
@@ -9573,13 +9549,13 @@
         <v>30010</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>721</v>
+        <v>99</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>235</v>
+        <v>718</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9594,13 +9570,13 @@
         <v>135800</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H47" s="7">
         <v>155</v>
@@ -9609,13 +9585,13 @@
         <v>177680</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="M47" s="7">
         <v>275</v>
@@ -9624,13 +9600,13 @@
         <v>313480</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>280</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9698,13 +9674,13 @@
         <v>200112</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="H49" s="7">
         <v>137</v>
@@ -9713,13 +9689,13 @@
         <v>161930</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>734</v>
       </c>
       <c r="M49" s="7">
         <v>346</v>
@@ -9728,13 +9704,13 @@
         <v>362042</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>736</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9752,10 +9728,10 @@
         <v>211</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>738</v>
+        <v>535</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H50" s="7">
         <v>26</v>
@@ -9764,13 +9740,13 @@
         <v>29538</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>210</v>
+        <v>483</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>740</v>
+        <v>551</v>
       </c>
       <c r="M50" s="7">
         <v>60</v>
@@ -9782,10 +9758,10 @@
         <v>425</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9800,13 +9776,13 @@
         <v>68408</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H51" s="7">
         <v>73</v>
@@ -9815,13 +9791,13 @@
         <v>83954</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>555</v>
+        <v>744</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>491</v>
+        <v>745</v>
       </c>
       <c r="M51" s="7">
         <v>146</v>
@@ -9830,13 +9806,13 @@
         <v>152362</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>748</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9854,10 +9830,10 @@
         <v>749</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>340</v>
+        <v>750</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>750</v>
+        <v>104</v>
       </c>
       <c r="H52" s="7">
         <v>28</v>
@@ -9872,7 +9848,7 @@
         <v>751</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>492</v>
+        <v>752</v>
       </c>
       <c r="M52" s="7">
         <v>50</v>
@@ -9881,13 +9857,13 @@
         <v>53505</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>404</v>
+        <v>71</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9902,13 +9878,13 @@
         <v>30724</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>480</v>
+        <v>612</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>503</v>
+        <v>754</v>
       </c>
       <c r="H53" s="7">
         <v>52</v>
@@ -9917,13 +9893,13 @@
         <v>60006</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="M53" s="7">
         <v>85</v>
@@ -9935,10 +9911,10 @@
         <v>298</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>756</v>
+        <v>135</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9956,10 +9932,10 @@
         <v>26</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>189</v>
+        <v>760</v>
       </c>
       <c r="H54" s="7">
         <v>38</v>
@@ -9968,13 +9944,13 @@
         <v>45852</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>564</v>
+        <v>513</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M54" s="7">
         <v>72</v>
@@ -9986,10 +9962,10 @@
         <v>108</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>761</v>
+        <v>632</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>137</v>
+        <v>654</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10004,13 +9980,13 @@
         <v>11130</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="H55" s="7">
         <v>12</v>
@@ -10019,13 +9995,13 @@
         <v>14037</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>764</v>
+        <v>609</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>765</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>342</v>
+        <v>766</v>
       </c>
       <c r="M55" s="7">
         <v>23</v>
@@ -10034,13 +10010,13 @@
         <v>25167</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>669</v>
+        <v>562</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10055,13 +10031,13 @@
         <v>195335</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>770</v>
+        <v>674</v>
       </c>
       <c r="H56" s="7">
         <v>289</v>
@@ -10085,13 +10061,13 @@
         <v>546098</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>515</v>
+        <v>774</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10159,13 +10135,13 @@
         <v>951161</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>776</v>
+        <v>475</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H58" s="7">
         <v>836</v>
@@ -10174,13 +10150,13 @@
         <v>873963</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M58" s="7">
         <v>1741</v>
@@ -10189,13 +10165,13 @@
         <v>1825123</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10210,13 +10186,13 @@
         <v>133481</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>546</v>
+        <v>785</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>336</v>
+        <v>786</v>
       </c>
       <c r="H59" s="7">
         <v>108</v>
@@ -10225,13 +10201,13 @@
         <v>115456</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>786</v>
+        <v>759</v>
       </c>
       <c r="M59" s="7">
         <v>233</v>
@@ -10243,10 +10219,10 @@
         <v>126</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>667</v>
+        <v>766</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>787</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -10264,7 +10240,7 @@
         <v>326</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>788</v>
+        <v>559</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>789</v>
@@ -10279,10 +10255,10 @@
         <v>790</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>18</v>
+        <v>791</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M60" s="7">
         <v>787</v>
@@ -10291,13 +10267,13 @@
         <v>827766</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>694</v>
+        <v>793</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -10315,7 +10291,7 @@
         <v>136</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>426</v>
+        <v>796</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>317</v>
@@ -10327,13 +10303,13 @@
         <v>183116</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>613</v>
+        <v>797</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>235</v>
+        <v>718</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="M61" s="7">
         <v>294</v>
@@ -10342,10 +10318,10 @@
         <v>307678</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>106</v>
+        <v>799</v>
       </c>
       <c r="Q61" s="7" t="s">
         <v>319</v>
@@ -10363,13 +10339,13 @@
         <v>223579</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>709</v>
+        <v>800</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>796</v>
+        <v>489</v>
       </c>
       <c r="H62" s="7">
         <v>279</v>
@@ -10378,13 +10354,13 @@
         <v>298662</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>662</v>
+        <v>747</v>
       </c>
       <c r="M62" s="7">
         <v>491</v>
@@ -10393,13 +10369,13 @@
         <v>522241</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>551</v>
+        <v>686</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>799</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -10414,13 +10390,13 @@
         <v>232472</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>801</v>
+        <v>690</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="H63" s="7">
         <v>239</v>
@@ -10429,13 +10405,13 @@
         <v>253221</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>193</v>
+        <v>645</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>803</v>
+        <v>758</v>
       </c>
       <c r="M63" s="7">
         <v>457</v>
@@ -10444,13 +10420,13 @@
         <v>485693</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -10465,13 +10441,13 @@
         <v>88892</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>808</v>
+        <v>27</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>809</v>
+        <v>394</v>
       </c>
       <c r="H64" s="7">
         <v>111</v>
@@ -10483,10 +10459,10 @@
         <v>382</v>
       </c>
       <c r="K64" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>810</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>752</v>
       </c>
       <c r="M64" s="7">
         <v>193</v>
@@ -10501,7 +10477,7 @@
         <v>811</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -10630,7 +10606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE0B347-9656-4DC8-9231-92E2F547E5A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18A62D8-6AE7-4152-939D-419BC03C6F8F}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10769,7 +10745,7 @@
         <v>91019</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>825</v>
@@ -10820,13 +10796,13 @@
         <v>42788</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>657</v>
+        <v>833</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -10835,7 +10811,7 @@
         <v>87657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>835</v>
+        <v>554</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>836</v>
@@ -10856,10 +10832,10 @@
         <v>34421</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>838</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>661</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>839</v>
@@ -10871,13 +10847,13 @@
         <v>44700</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>384</v>
+        <v>841</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -10886,13 +10862,13 @@
         <v>79121</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>788</v>
+        <v>843</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>841</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10907,13 +10883,13 @@
         <v>12957</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>534</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>844</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -10925,10 +10901,10 @@
         <v>66</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>609</v>
+        <v>847</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -10937,13 +10913,13 @@
         <v>27796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>846</v>
+        <v>810</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>585</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>663</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10961,10 +10937,10 @@
         <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>403</v>
+        <v>561</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -10973,13 +10949,13 @@
         <v>30722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -10991,7 +10967,7 @@
         <v>390</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>850</v>
+        <v>397</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>851</v>
@@ -11012,7 +10988,7 @@
         <v>852</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>584</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>853</v>
@@ -11024,13 +11000,13 @@
         <v>10917</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>854</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>800</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -11042,7 +11018,7 @@
         <v>855</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>846</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>856</v>
@@ -11066,7 +11042,7 @@
         <v>858</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>859</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -11075,13 +11051,13 @@
         <v>2114</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>860</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -11090,13 +11066,13 @@
         <v>4666</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>863</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11111,13 +11087,13 @@
         <v>114708</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>865</v>
+        <v>582</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>866</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
@@ -11126,13 +11102,13 @@
         <v>114170</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -11141,13 +11117,13 @@
         <v>228878</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11215,13 +11191,13 @@
         <v>102118</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>418</v>
+        <v>871</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -11230,13 +11206,13 @@
         <v>125619</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>875</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>877</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -11245,13 +11221,13 @@
         <v>227737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>527</v>
+        <v>876</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>878</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11269,10 +11245,10 @@
         <v>879</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>880</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -11281,13 +11257,13 @@
         <v>58137</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>836</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -11296,13 +11272,13 @@
         <v>106602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11317,13 +11293,13 @@
         <v>77782</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -11332,13 +11308,13 @@
         <v>65698</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>890</v>
+        <v>653</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>891</v>
+        <v>639</v>
       </c>
       <c r="M15" s="7">
         <v>123</v>
@@ -11347,13 +11323,13 @@
         <v>143480</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>893</v>
+        <v>792</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>894</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11368,13 +11344,13 @@
         <v>11446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>713</v>
+        <v>894</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -11383,13 +11359,13 @@
         <v>29963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>801</v>
+        <v>564</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -11398,13 +11374,13 @@
         <v>41409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>612</v>
+        <v>897</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>899</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11422,7 +11398,7 @@
         <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>667</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>900</v>
@@ -11440,7 +11416,7 @@
         <v>902</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>903</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -11452,10 +11428,10 @@
         <v>442</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>905</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11470,10 +11446,10 @@
         <v>11547</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>906</v>
+        <v>688</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>131</v>
@@ -11488,10 +11464,10 @@
         <v>333</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>719</v>
+        <v>146</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -11500,13 +11476,13 @@
         <v>40244</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>637</v>
+        <v>906</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>103</v>
+        <v>907</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11521,13 +11497,13 @@
         <v>6056</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>911</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>752</v>
+        <v>499</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -11536,13 +11512,13 @@
         <v>6004</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>913</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -11602,13 +11578,13 @@
         <v>285100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>726</v>
+        <v>922</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>813</v>
+        <v>924</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11676,13 +11652,13 @@
         <v>131127</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H22" s="7">
         <v>194</v>
@@ -11691,13 +11667,13 @@
         <v>125937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M22" s="7">
         <v>328</v>
@@ -11706,13 +11682,13 @@
         <v>257065</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>931</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11727,13 +11703,13 @@
         <v>80838</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H23" s="7">
         <v>102</v>
@@ -11742,13 +11718,13 @@
         <v>70488</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>657</v>
+        <v>833</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>936</v>
+        <v>243</v>
       </c>
       <c r="M23" s="7">
         <v>180</v>
@@ -11760,10 +11736,10 @@
         <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>883</v>
+        <v>937</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11778,13 +11754,13 @@
         <v>67493</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>835</v>
+        <v>554</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H24" s="7">
         <v>125</v>
@@ -11793,13 +11769,13 @@
         <v>82267</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>386</v>
+        <v>941</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="M24" s="7">
         <v>191</v>
@@ -11808,13 +11784,13 @@
         <v>149760</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>941</v>
+        <v>745</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11832,10 +11808,10 @@
         <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>944</v>
+        <v>702</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>604</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -11844,13 +11820,13 @@
         <v>32556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>945</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -11859,13 +11835,13 @@
         <v>58439</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>946</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11880,13 +11856,13 @@
         <v>37041</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>707</v>
+        <v>946</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>711</v>
+        <v>947</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -11895,13 +11871,13 @@
         <v>61107</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>948</v>
+        <v>539</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>949</v>
+        <v>17</v>
       </c>
       <c r="M26" s="7">
         <v>122</v>
@@ -11910,13 +11886,13 @@
         <v>98148</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>950</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11931,13 +11907,13 @@
         <v>38523</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>952</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>953</v>
       </c>
       <c r="H27" s="7">
         <v>41</v>
@@ -11949,10 +11925,10 @@
         <v>393</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>209</v>
+        <v>845</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>954</v>
+        <v>387</v>
       </c>
       <c r="M27" s="7">
         <v>74</v>
@@ -11961,13 +11937,13 @@
         <v>66604</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>544</v>
+        <v>954</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11982,13 +11958,13 @@
         <v>5542</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>956</v>
+        <v>764</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -12000,10 +11976,10 @@
         <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>766</v>
+        <v>956</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>958</v>
+        <v>101</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -12015,10 +11991,10 @@
         <v>234</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>960</v>
+        <v>915</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12033,13 +12009,13 @@
         <v>170646</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>962</v>
+        <v>406</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="H29" s="7">
         <v>230</v>
@@ -12048,13 +12024,13 @@
         <v>166396</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="M29" s="7">
         <v>399</v>
@@ -12063,13 +12039,13 @@
         <v>337042</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>348</v>
+        <v>964</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12137,13 +12113,13 @@
         <v>180907</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="H31" s="7">
         <v>280</v>
@@ -12152,13 +12128,13 @@
         <v>172376</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="M31" s="7">
         <v>469</v>
@@ -12167,13 +12143,13 @@
         <v>353282</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>976</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12188,13 +12164,13 @@
         <v>72611</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>739</v>
+        <v>175</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="H32" s="7">
         <v>129</v>
@@ -12203,13 +12179,13 @@
         <v>85865</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>644</v>
+        <v>976</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>981</v>
+        <v>13</v>
       </c>
       <c r="M32" s="7">
         <v>200</v>
@@ -12218,13 +12194,13 @@
         <v>158476</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>605</v>
+        <v>979</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12239,13 +12215,13 @@
         <v>87956</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>986</v>
+        <v>90</v>
       </c>
       <c r="H33" s="7">
         <v>158</v>
@@ -12254,13 +12230,13 @@
         <v>98191</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>989</v>
+        <v>642</v>
       </c>
       <c r="M33" s="7">
         <v>245</v>
@@ -12269,13 +12245,13 @@
         <v>186147</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>788</v>
+        <v>985</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12290,13 +12266,13 @@
         <v>37943</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>749</v>
+        <v>988</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>107</v>
+        <v>808</v>
       </c>
       <c r="H34" s="7">
         <v>70</v>
@@ -12308,10 +12284,10 @@
         <v>378</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>992</v>
+        <v>399</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>993</v>
+        <v>804</v>
       </c>
       <c r="M34" s="7">
         <v>105</v>
@@ -12323,10 +12299,10 @@
         <v>364</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>994</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12341,13 +12317,13 @@
         <v>70790</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>128</v>
+        <v>550</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="H35" s="7">
         <v>130</v>
@@ -12356,13 +12332,13 @@
         <v>82194</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>499</v>
+        <v>992</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="M35" s="7">
         <v>202</v>
@@ -12374,10 +12350,10 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>176</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12392,13 +12368,13 @@
         <v>34689</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>614</v>
+        <v>796</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="H36" s="7">
         <v>66</v>
@@ -12407,10 +12383,10 @@
         <v>41702</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>425</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>137</v>
@@ -12422,13 +12398,13 @@
         <v>76391</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>1002</v>
+        <v>655</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>671</v>
+        <v>433</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12443,13 +12419,13 @@
         <v>57697</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>1005</v>
+        <v>861</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>871</v>
+        <v>999</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -12458,13 +12434,13 @@
         <v>13792</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>1008</v>
+        <v>140</v>
       </c>
       <c r="M37" s="7">
         <v>24</v>
@@ -12473,13 +12449,13 @@
         <v>71489</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>272</v>
+        <v>904</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12494,13 +12470,13 @@
         <v>178003</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>840</v>
+        <v>1005</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="H38" s="7">
         <v>281</v>
@@ -12509,13 +12485,13 @@
         <v>202737</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>783</v>
+        <v>1007</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>1013</v>
+        <v>972</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="M38" s="7">
         <v>454</v>
@@ -12524,13 +12500,13 @@
         <v>380741</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>780</v>
+        <v>1009</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12598,13 +12574,13 @@
         <v>169729</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="H40" s="7">
         <v>256</v>
@@ -12613,13 +12589,13 @@
         <v>144258</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>577</v>
+        <v>928</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="M40" s="7">
         <v>452</v>
@@ -12628,13 +12604,13 @@
         <v>313987</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12649,13 +12625,13 @@
         <v>61587</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="H41" s="7">
         <v>123</v>
@@ -12664,13 +12640,13 @@
         <v>72486</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>486</v>
+        <v>1023</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="M41" s="7">
         <v>196</v>
@@ -12682,10 +12658,10 @@
         <v>432</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>595</v>
+        <v>1025</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12700,13 +12676,13 @@
         <v>80078</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>788</v>
+        <v>1028</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H42" s="7">
         <v>130</v>
@@ -12715,13 +12691,13 @@
         <v>74996</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>979</v>
+        <v>1021</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>11</v>
+        <v>1030</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1032</v>
+        <v>431</v>
       </c>
       <c r="M42" s="7">
         <v>217</v>
@@ -12730,13 +12706,13 @@
         <v>155074</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>1033</v>
+        <v>792</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>373</v>
+        <v>1031</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>882</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12751,13 +12727,13 @@
         <v>35762</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>1034</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="H43" s="7">
         <v>58</v>
@@ -12766,10 +12742,10 @@
         <v>35384</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>754</v>
+        <v>1035</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>1036</v>
@@ -12805,10 +12781,10 @@
         <v>1038</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>1039</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>1040</v>
       </c>
       <c r="H44" s="7">
         <v>93</v>
@@ -12817,13 +12793,13 @@
         <v>53906</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>1041</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>851</v>
       </c>
       <c r="M44" s="7">
         <v>142</v>
@@ -12832,13 +12808,13 @@
         <v>99654</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>1044</v>
+        <v>657</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>1045</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12853,13 +12829,13 @@
         <v>32796</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>897</v>
+        <v>452</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H45" s="7">
         <v>49</v>
@@ -12868,13 +12844,13 @@
         <v>30377</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>651</v>
+        <v>810</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="M45" s="7">
         <v>83</v>
@@ -12886,10 +12862,10 @@
         <v>53</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>597</v>
+        <v>381</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>1049</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12904,13 +12880,13 @@
         <v>6886</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>1051</v>
+        <v>910</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H46" s="7">
         <v>18</v>
@@ -12919,13 +12895,13 @@
         <v>11663</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>1053</v>
+        <v>956</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>247</v>
+        <v>545</v>
       </c>
       <c r="M46" s="7">
         <v>26</v>
@@ -12937,10 +12913,10 @@
         <v>275</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>271</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12955,13 +12931,13 @@
         <v>164923</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="H47" s="7">
         <v>271</v>
@@ -12970,13 +12946,13 @@
         <v>169235</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="M47" s="7">
         <v>448</v>
@@ -12985,13 +12961,13 @@
         <v>334158</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13059,13 +13035,13 @@
         <v>269024</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="H49" s="7">
         <v>379</v>
@@ -13074,13 +13050,13 @@
         <v>195301</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>468</v>
+        <v>1061</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>1067</v>
+        <v>17</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="M49" s="7">
         <v>780</v>
@@ -13089,13 +13065,13 @@
         <v>464325</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13110,13 +13086,13 @@
         <v>79860</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>374</v>
+        <v>1067</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="H50" s="7">
         <v>149</v>
@@ -13125,13 +13101,13 @@
         <v>80193</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>1075</v>
+        <v>190</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>1076</v>
+        <v>656</v>
       </c>
       <c r="M50" s="7">
         <v>266</v>
@@ -13140,13 +13116,13 @@
         <v>160052</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>1077</v>
+        <v>503</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>1078</v>
+        <v>737</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>540</v>
+        <v>948</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13161,13 +13137,13 @@
         <v>71633</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>649</v>
+        <v>1071</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1080</v>
+        <v>833</v>
       </c>
       <c r="H51" s="7">
         <v>193</v>
@@ -13176,13 +13152,13 @@
         <v>96785</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>707</v>
+        <v>1073</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="M51" s="7">
         <v>296</v>
@@ -13191,13 +13167,13 @@
         <v>168419</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>802</v>
+        <v>1076</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>489</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -13215,10 +13191,10 @@
         <v>270</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>1084</v>
+        <v>561</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>850</v>
+        <v>1078</v>
       </c>
       <c r="H52" s="7">
         <v>75</v>
@@ -13227,13 +13203,13 @@
         <v>39537</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>758</v>
+        <v>535</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>1085</v>
+        <v>61</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>393</v>
+        <v>1079</v>
       </c>
       <c r="M52" s="7">
         <v>113</v>
@@ -13242,13 +13218,13 @@
         <v>67371</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>1086</v>
+        <v>799</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>187</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -13263,13 +13239,13 @@
         <v>37177</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>1087</v>
+        <v>607</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="H53" s="7">
         <v>120</v>
@@ -13278,13 +13254,13 @@
         <v>174465</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>1091</v>
+        <v>800</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="M53" s="7">
         <v>179</v>
@@ -13296,10 +13272,10 @@
         <v>91</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>1093</v>
+        <v>1033</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>568</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13314,13 +13290,13 @@
         <v>16773</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>1096</v>
+        <v>303</v>
       </c>
       <c r="H54" s="7">
         <v>61</v>
@@ -13329,13 +13305,13 @@
         <v>32651</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>597</v>
+        <v>296</v>
       </c>
       <c r="M54" s="7">
         <v>83</v>
@@ -13344,13 +13320,13 @@
         <v>49424</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>297</v>
+        <v>1089</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>1099</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13365,13 +13341,13 @@
         <v>3208</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1100</v>
+        <v>912</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1102</v>
+        <v>1048</v>
       </c>
       <c r="H55" s="7">
         <v>8</v>
@@ -13380,13 +13356,13 @@
         <v>4743</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>1100</v>
+        <v>912</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="M55" s="7">
         <v>13</v>
@@ -13395,13 +13371,13 @@
         <v>7951</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>1100</v>
+        <v>912</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13416,13 +13392,13 @@
         <v>189707</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="H56" s="7">
         <v>718</v>
@@ -13431,13 +13407,13 @@
         <v>400527</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="M56" s="7">
         <v>998</v>
@@ -13446,13 +13422,13 @@
         <v>590234</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>1114</v>
+        <v>1007</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13520,13 +13496,13 @@
         <v>956118</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>962</v>
+        <v>1104</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="H58" s="7">
         <v>1276</v>
@@ -13538,10 +13514,10 @@
         <v>230</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>930</v>
+        <v>1106</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="M58" s="7">
         <v>2319</v>
@@ -13550,13 +13526,13 @@
         <v>1810628</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -13571,13 +13547,13 @@
         <v>388229</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>1079</v>
+        <v>329</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>1122</v>
+        <v>840</v>
       </c>
       <c r="H59" s="7">
         <v>588</v>
@@ -13586,13 +13562,13 @@
         <v>409957</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>905</v>
+        <v>174</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="M59" s="7">
         <v>988</v>
@@ -13601,13 +13577,13 @@
         <v>798186</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>1125</v>
+        <v>588</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -13622,13 +13598,13 @@
         <v>419364</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>1129</v>
+        <v>369</v>
       </c>
       <c r="H60" s="7">
         <v>699</v>
@@ -13640,10 +13616,10 @@
         <v>309</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>1130</v>
+        <v>1041</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>987</v>
+        <v>1116</v>
       </c>
       <c r="M60" s="7">
         <v>1114</v>
@@ -13652,13 +13628,13 @@
         <v>882002</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>641</v>
+        <v>1118</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>987</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -13673,13 +13649,13 @@
         <v>151825</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>1132</v>
+        <v>496</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>1133</v>
+        <v>135</v>
       </c>
       <c r="H61" s="7">
         <v>282</v>
@@ -13688,13 +13664,13 @@
         <v>196163</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>705</v>
+        <v>584</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>994</v>
+        <v>704</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>398</v>
+        <v>513</v>
       </c>
       <c r="M61" s="7">
         <v>429</v>
@@ -13703,13 +13679,13 @@
         <v>347987</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>759</v>
+        <v>1121</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -13724,13 +13700,13 @@
         <v>240483</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>1136</v>
+        <v>316</v>
       </c>
       <c r="H62" s="7">
         <v>492</v>
@@ -13739,13 +13715,13 @@
         <v>445811</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>484</v>
+        <v>1124</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="M62" s="7">
         <v>733</v>
@@ -13757,10 +13733,10 @@
         <v>174</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>327</v>
+        <v>508</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -13778,10 +13754,10 @@
         <v>388</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>718</v>
+        <v>1127</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>325</v>
+        <v>1128</v>
       </c>
       <c r="H63" s="7">
         <v>236</v>
@@ -13790,13 +13766,13 @@
         <v>172425</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>846</v>
+        <v>810</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>1093</v>
+        <v>325</v>
       </c>
       <c r="M63" s="7">
         <v>375</v>
@@ -13808,10 +13784,10 @@
         <v>379</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>435</v>
+        <v>1130</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>190</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -13826,13 +13802,13 @@
         <v>81942</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>960</v>
+        <v>1131</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>1142</v>
+        <v>38</v>
       </c>
       <c r="H64" s="7">
         <v>67</v>
@@ -13841,13 +13817,13 @@
         <v>50172</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>1054</v>
+        <v>765</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>76</v>
+        <v>1134</v>
       </c>
       <c r="M64" s="7">
         <v>96</v>
@@ -13856,13 +13832,13 @@
         <v>132115</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>536</v>
+        <v>1135</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>1102</v>
+        <v>1136</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>1144</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13877,13 +13853,13 @@
         <v>962044</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="H65" s="7">
         <v>1699</v>
@@ -13892,13 +13868,13 @@
         <v>1194108</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="M65" s="7">
         <v>2650</v>
@@ -13907,13 +13883,13 @@
         <v>2156152</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>679</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -13940,7 +13916,7 @@
         <v>5339</v>
       </c>
       <c r="I66" s="7">
-        <v>3785784</v>
+        <v>3785783</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>88</v>
